--- a/final_dataset/metrics_data_all.xlsx
+++ b/final_dataset/metrics_data_all.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="238">
   <si>
     <t xml:space="preserve">ProjectID</t>
   </si>
@@ -28,7 +28,7 @@
     <t xml:space="preserve"> BugId</t>
   </si>
   <si>
-    <t xml:space="preserve"> Abstractness</t>
+    <t xml:space="preserve"> Abstractness (%)</t>
   </si>
   <si>
     <t xml:space="preserve"> AfferentCouplings</t>
@@ -112,13 +112,13 @@
     <t xml:space="preserve"> WeightedMethods</t>
   </si>
   <si>
-    <t xml:space="preserve"> FaultNode_InDegree</t>
+    <t xml:space="preserve">InDegree</t>
   </si>
   <si>
-    <t xml:space="preserve"> FaultNode_OutDegree</t>
+    <t xml:space="preserve">OutDegree</t>
   </si>
   <si>
-    <t xml:space="preserve"> FaultNodeDegreeCentrality</t>
+    <t xml:space="preserve">DegreeCentrality</t>
   </si>
   <si>
     <t xml:space="preserve"> CBO</t>
@@ -139,7 +139,7 @@
     <t xml:space="preserve"> NoOfTestCasesExecutesDynamicCallGraph</t>
   </si>
   <si>
-    <t xml:space="preserve">StatementCoverage</t>
+    <t xml:space="preserve">StatementCoverage (%)</t>
   </si>
   <si>
     <t xml:space="preserve">FilesChangeCount</t>
@@ -482,9 +482,6 @@
   </si>
   <si>
     <t xml:space="preserve">93.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -</t>
   </si>
   <si>
     <t xml:space="preserve">72.8</t>
@@ -1003,69 +1000,68 @@
   </sheetPr>
   <dimension ref="A1:BO346"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="BN1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BO1" activeCellId="0" sqref="BO1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.3469387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="25.1071428571429"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="29.8316326530612"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="26.3214285714286"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="31.5867346938776"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="26.4591836734694"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="28.2142857142857"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="24.4336734693878"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="22.6785714285714"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="19.0357142857143"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="15.7959183673469"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="16.6020408163265"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="16.8724489795918"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="22.1377551020408"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="22.2755102040816"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="19.8418367346939"/>
-    <col collapsed="false" hidden="false" max="31" min="30" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="20.1122448979592"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="4.32142857142857"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="4.05102040816327"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="26.8622448979592"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="29.8316326530612"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="27.8061224489796"/>
-    <col collapsed="false" hidden="false" max="40" min="39" style="0" width="22.8112244897959"/>
-    <col collapsed="false" hidden="false" max="41" min="41" style="1" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="42" min="42" style="1" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="43" min="43" style="1" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="44" min="44" style="1" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="45" min="45" style="1" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="46" min="46" style="1" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="47" min="47" style="1" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="49" min="48" style="1" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="50" min="50" style="1" width="6.20918367346939"/>
-    <col collapsed="false" hidden="false" max="52" min="51" style="1" width="24.9744897959184"/>
-    <col collapsed="false" hidden="false" max="53" min="53" style="1" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="54" min="54" style="1" width="19.9795918367347"/>
-    <col collapsed="false" hidden="false" max="55" min="55" style="1" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="56" min="56" style="1" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="57" min="57" style="1" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="58" min="58" style="1" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="66" min="59" style="2" width="18.4948979591837"/>
-    <col collapsed="false" hidden="false" max="67" min="67" style="3" width="7.1530612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="68" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.20918367346939"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.8367346938776"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="25.9183673469388"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="31.1836734693878"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="26.0510204081633"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="24.1632653061224"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="22.4081632653061"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="18.765306122449"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="16.3316326530612"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="16.6020408163265"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="21.8673469387755"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="22.0051020408163"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="13.5"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="19.5714285714286"/>
+    <col collapsed="false" hidden="false" max="31" min="30" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="19.8418367346939"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="4.18367346938776"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="3.91326530612245"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="26.4591836734694"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="27.5408163265306"/>
+    <col collapsed="false" hidden="false" max="40" min="39" style="0" width="22.5459183673469"/>
+    <col collapsed="false" hidden="false" max="41" min="41" style="1" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="42" min="42" style="1" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="43" min="43" style="1" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="44" min="44" style="1" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="45" min="45" style="1" width="13.5"/>
+    <col collapsed="false" hidden="false" max="46" min="46" style="1" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="47" min="47" style="1" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="49" min="48" style="1" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="50" min="50" style="1" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="52" min="51" style="1" width="24.7040816326531"/>
+    <col collapsed="false" hidden="false" max="53" min="53" style="1" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="54" min="54" style="1" width="19.7091836734694"/>
+    <col collapsed="false" hidden="false" max="55" min="55" style="1" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="56" min="56" style="1" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="57" min="57" style="1" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="58" min="58" style="1" width="13.5"/>
+    <col collapsed="false" hidden="false" max="66" min="59" style="2" width="18.2244897959184"/>
+    <col collapsed="false" hidden="false" max="67" min="67" style="3" width="7.02040816326531"/>
+    <col collapsed="false" hidden="false" max="1025" min="68" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45819,35 +45815,35 @@
       <c r="AD221" s="0" t="n">
         <v>32815</v>
       </c>
-      <c r="AE221" s="9" t="s">
+      <c r="AE221" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF221" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG221" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH221" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI221" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ221" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK221" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL221" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM221" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN221" s="13" t="s">
         <v>154</v>
-      </c>
-      <c r="AF221" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="AG221" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="AH221" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="AI221" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="AJ221" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="AK221" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="AL221" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="AM221" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="AN221" s="13" t="s">
-        <v>155</v>
       </c>
       <c r="AO221" s="1" t="n">
         <v>1</v>
@@ -46050,7 +46046,7 @@
         <v>96</v>
       </c>
       <c r="AN222" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AO222" s="1" t="n">
         <v>1</v>
@@ -46225,32 +46221,32 @@
       <c r="AD223" s="0" t="n">
         <v>32600</v>
       </c>
-      <c r="AE223" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="AF223" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="AG223" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="AH223" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="AI223" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="AJ223" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="AK223" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="AL223" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="AM223" s="9" t="s">
-        <v>154</v>
+      <c r="AE223" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF223" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG223" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH223" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI223" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ223" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK223" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL223" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM223" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="AN223" s="13" t="s">
         <v>148</v>
@@ -46456,7 +46452,7 @@
         <v>44</v>
       </c>
       <c r="AN224" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AO224" s="1" t="n">
         <v>1</v>
@@ -46659,7 +46655,7 @@
         <v>2266</v>
       </c>
       <c r="AN225" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AO225" s="1" t="n">
         <v>1</v>
@@ -46862,7 +46858,7 @@
         <v>0</v>
       </c>
       <c r="AN226" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AO226" s="1" t="n">
         <v>1</v>
@@ -47268,7 +47264,7 @@
         <v>3056</v>
       </c>
       <c r="AN228" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AO228" s="1" t="n">
         <v>1</v>
@@ -47471,7 +47467,7 @@
         <v>0</v>
       </c>
       <c r="AN229" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AO229" s="1" t="n">
         <v>1</v>
@@ -47674,7 +47670,7 @@
         <v>38</v>
       </c>
       <c r="AN230" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AO230" s="1" t="n">
         <v>1</v>
@@ -47877,7 +47873,7 @@
         <v>2597</v>
       </c>
       <c r="AN231" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AO231" s="1" t="n">
         <v>1</v>
@@ -48080,7 +48076,7 @@
         <v>3944</v>
       </c>
       <c r="AN232" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AO232" s="1" t="n">
         <v>1</v>
@@ -48283,7 +48279,7 @@
         <v>454</v>
       </c>
       <c r="AN233" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AO233" s="1" t="n">
         <v>1</v>
@@ -48689,7 +48685,7 @@
         <v>374</v>
       </c>
       <c r="AN235" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AO235" s="1" t="n">
         <v>1</v>
@@ -48892,7 +48888,7 @@
         <v>374</v>
       </c>
       <c r="AN236" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AO236" s="1" t="n">
         <v>1</v>
@@ -49095,7 +49091,7 @@
         <v>0</v>
       </c>
       <c r="AN237" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AO237" s="1" t="n">
         <v>1</v>
@@ -49501,7 +49497,7 @@
         <v>587</v>
       </c>
       <c r="AN239" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AO239" s="1" t="n">
         <v>1</v>
@@ -49704,7 +49700,7 @@
         <v>28</v>
       </c>
       <c r="AN240" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AO240" s="1" t="n">
         <v>1</v>
@@ -49907,7 +49903,7 @@
         <v>5</v>
       </c>
       <c r="AN241" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AO241" s="1" t="n">
         <v>1</v>
@@ -50110,7 +50106,7 @@
         <v>0</v>
       </c>
       <c r="AN242" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AO242" s="1" t="n">
         <v>1</v>
@@ -50313,7 +50309,7 @@
         <v>56</v>
       </c>
       <c r="AN243" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AO243" s="1" t="n">
         <v>1</v>
@@ -50516,7 +50512,7 @@
         <v>305</v>
       </c>
       <c r="AN244" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AO244" s="1" t="n">
         <v>2</v>
@@ -50719,7 +50715,7 @@
         <v>3848</v>
       </c>
       <c r="AN245" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AO245" s="1" t="n">
         <v>1</v>
@@ -51125,7 +51121,7 @@
         <v>340</v>
       </c>
       <c r="AN247" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AO247" s="1" t="n">
         <v>1</v>
@@ -51328,7 +51324,7 @@
         <v>3771</v>
       </c>
       <c r="AN248" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AO248" s="1" t="n">
         <v>2</v>
@@ -51531,7 +51527,7 @@
         <v>1099</v>
       </c>
       <c r="AN249" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AO249" s="1" t="n">
         <v>1</v>
@@ -51734,7 +51730,7 @@
         <v>0</v>
       </c>
       <c r="AN250" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AO250" s="1" t="n">
         <v>1</v>
@@ -51937,7 +51933,7 @@
         <v>0</v>
       </c>
       <c r="AN251" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AO251" s="1" t="n">
         <v>2</v>
@@ -52140,7 +52136,7 @@
         <v>1665</v>
       </c>
       <c r="AN252" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AO252" s="1" t="n">
         <v>1</v>
@@ -52343,7 +52339,7 @@
         <v>197</v>
       </c>
       <c r="AN253" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AO253" s="1" t="n">
         <v>1</v>
@@ -52546,7 +52542,7 @@
         <v>308</v>
       </c>
       <c r="AN254" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AO254" s="1" t="n">
         <v>1</v>
@@ -52749,7 +52745,7 @@
         <v>4997</v>
       </c>
       <c r="AN255" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AO255" s="1" t="n">
         <v>1</v>
@@ -52841,7 +52837,7 @@
         <v>42</v>
       </c>
       <c r="C256" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D256" s="0" t="n">
         <v>0</v>
@@ -52952,7 +52948,7 @@
         <v>0</v>
       </c>
       <c r="AN256" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AO256" s="1" t="n">
         <v>1</v>
@@ -53044,7 +53040,7 @@
         <v>43</v>
       </c>
       <c r="C257" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D257" s="0" t="n">
         <v>0</v>
@@ -53155,7 +53151,7 @@
         <v>0</v>
       </c>
       <c r="AN257" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AO257" s="1" t="n">
         <v>1</v>
@@ -53247,7 +53243,7 @@
         <v>44</v>
       </c>
       <c r="C258" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D258" s="0" t="n">
         <v>0</v>
@@ -53358,7 +53354,7 @@
         <v>3351</v>
       </c>
       <c r="AN258" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AO258" s="1" t="n">
         <v>1</v>
@@ -53450,7 +53446,7 @@
         <v>45</v>
       </c>
       <c r="C259" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D259" s="0" t="n">
         <v>0</v>
@@ -53653,7 +53649,7 @@
         <v>46</v>
       </c>
       <c r="C260" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D260" s="0" t="n">
         <v>0</v>
@@ -53764,7 +53760,7 @@
         <v>0</v>
       </c>
       <c r="AN260" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AO260" s="1" t="n">
         <v>1</v>
@@ -53856,7 +53852,7 @@
         <v>47</v>
       </c>
       <c r="C261" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D261" s="0" t="n">
         <v>0</v>
@@ -53967,7 +53963,7 @@
         <v>180</v>
       </c>
       <c r="AN261" s="13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AO261" s="1" t="n">
         <v>2</v>
@@ -54059,7 +54055,7 @@
         <v>48</v>
       </c>
       <c r="C262" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D262" s="0" t="n">
         <v>0</v>
@@ -54170,7 +54166,7 @@
         <v>2424</v>
       </c>
       <c r="AN262" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AO262" s="1" t="n">
         <v>1</v>
@@ -54373,7 +54369,7 @@
         <v>4653</v>
       </c>
       <c r="AN263" s="13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AO263" s="1" t="n">
         <v>1</v>
@@ -54779,7 +54775,7 @@
         <v>1587</v>
       </c>
       <c r="AN265" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AO265" s="1" t="n">
         <v>1</v>
@@ -54982,7 +54978,7 @@
         <v>0</v>
       </c>
       <c r="AN266" s="13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AO266" s="1" t="n">
         <v>1</v>
@@ -55185,7 +55181,7 @@
         <v>9</v>
       </c>
       <c r="AN267" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AO267" s="1" t="n">
         <v>1</v>
@@ -55388,7 +55384,7 @@
         <v>8559</v>
       </c>
       <c r="AN268" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AO268" s="1" t="n">
         <v>2</v>
@@ -55591,7 +55587,7 @@
         <v>25</v>
       </c>
       <c r="AN269" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AO269" s="1" t="n">
         <v>1</v>
@@ -55794,7 +55790,7 @@
         <v>57</v>
       </c>
       <c r="AN270" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AO270" s="1" t="n">
         <v>1</v>
@@ -55886,7 +55882,7 @@
         <v>57</v>
       </c>
       <c r="C271" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D271" s="0" t="n">
         <v>0</v>
@@ -55997,7 +55993,7 @@
         <v>13</v>
       </c>
       <c r="AN271" s="13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AO271" s="1" t="n">
         <v>1</v>
@@ -56089,7 +56085,7 @@
         <v>58</v>
       </c>
       <c r="C272" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D272" s="0" t="n">
         <v>0</v>
@@ -56200,7 +56196,7 @@
         <v>117</v>
       </c>
       <c r="AN272" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AO272" s="1" t="n">
         <v>1</v>
@@ -56292,7 +56288,7 @@
         <v>59</v>
       </c>
       <c r="C273" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D273" s="0" t="n">
         <v>0</v>
@@ -56403,7 +56399,7 @@
         <v>6038</v>
       </c>
       <c r="AN273" s="13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AO273" s="1" t="n">
         <v>1</v>
@@ -56606,7 +56602,7 @@
         <v>257</v>
       </c>
       <c r="AN274" s="13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AO274" s="1" t="n">
         <v>1</v>
@@ -56809,7 +56805,7 @@
         <v>639</v>
       </c>
       <c r="AN275" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AO275" s="1" t="n">
         <v>1</v>
@@ -57012,7 +57008,7 @@
         <v>47</v>
       </c>
       <c r="AN276" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AO276" s="1" t="n">
         <v>1</v>
@@ -57215,7 +57211,7 @@
         <v>47</v>
       </c>
       <c r="AN277" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AO277" s="1" t="n">
         <v>1</v>
@@ -57418,7 +57414,7 @@
         <v>0</v>
       </c>
       <c r="AN278" s="13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AO278" s="1" t="n">
         <v>1</v>
@@ -57510,7 +57506,7 @@
         <v>65</v>
       </c>
       <c r="C279" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D279" s="0" t="n">
         <v>0</v>
@@ -57621,7 +57617,7 @@
         <v>0</v>
       </c>
       <c r="AN279" s="13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AO279" s="1" t="n">
         <v>1</v>
@@ -57713,7 +57709,7 @@
         <v>66</v>
       </c>
       <c r="C280" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D280" s="0" t="n">
         <v>0</v>
@@ -57824,7 +57820,7 @@
         <v>2216</v>
       </c>
       <c r="AN280" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AO280" s="1" t="n">
         <v>1</v>
@@ -57916,7 +57912,7 @@
         <v>67</v>
       </c>
       <c r="C281" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D281" s="0" t="n">
         <v>0</v>
@@ -58027,7 +58023,7 @@
         <v>65</v>
       </c>
       <c r="AN281" s="13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AO281" s="1" t="n">
         <v>1</v>
@@ -58119,7 +58115,7 @@
         <v>68</v>
       </c>
       <c r="C282" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D282" s="0" t="n">
         <v>0</v>
@@ -58230,7 +58226,7 @@
         <v>5774</v>
       </c>
       <c r="AN282" s="13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AO282" s="1" t="n">
         <v>1</v>
@@ -58433,7 +58429,7 @@
         <v>1458</v>
       </c>
       <c r="AN283" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AO283" s="1" t="n">
         <v>1</v>
@@ -58525,7 +58521,7 @@
         <v>70</v>
       </c>
       <c r="C284" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D284" s="0" t="n">
         <v>0</v>
@@ -58636,7 +58632,7 @@
         <v>2367</v>
       </c>
       <c r="AN284" s="13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AO284" s="1" t="n">
         <v>1</v>
@@ -58728,7 +58724,7 @@
         <v>71</v>
       </c>
       <c r="C285" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D285" s="0" t="n">
         <v>0</v>
@@ -58839,7 +58835,7 @@
         <v>72</v>
       </c>
       <c r="AN285" s="13" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AO285" s="1" t="n">
         <v>1</v>
@@ -58931,7 +58927,7 @@
         <v>72</v>
       </c>
       <c r="C286" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D286" s="0" t="n">
         <v>0</v>
@@ -59042,7 +59038,7 @@
         <v>146</v>
       </c>
       <c r="AN286" s="13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AO286" s="1" t="n">
         <v>2</v>
@@ -59134,7 +59130,7 @@
         <v>73</v>
       </c>
       <c r="C287" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D287" s="0" t="n">
         <v>0</v>
@@ -59245,7 +59241,7 @@
         <v>497</v>
       </c>
       <c r="AN287" s="13" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AO287" s="1" t="n">
         <v>1</v>
@@ -59337,7 +59333,7 @@
         <v>74</v>
       </c>
       <c r="C288" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D288" s="0" t="n">
         <v>0</v>
@@ -59540,7 +59536,7 @@
         <v>75</v>
       </c>
       <c r="C289" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D289" s="0" t="n">
         <v>0</v>
@@ -59743,7 +59739,7 @@
         <v>76</v>
       </c>
       <c r="C290" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D290" s="0" t="n">
         <v>0</v>
@@ -59854,7 +59850,7 @@
         <v>46</v>
       </c>
       <c r="AN290" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AO290" s="1" t="n">
         <v>1</v>
@@ -59946,7 +59942,7 @@
         <v>77</v>
       </c>
       <c r="C291" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D291" s="0" t="n">
         <v>0</v>
@@ -60057,7 +60053,7 @@
         <v>471</v>
       </c>
       <c r="AN291" s="13" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AO291" s="1" t="n">
         <v>1</v>
@@ -60149,7 +60145,7 @@
         <v>78</v>
       </c>
       <c r="C292" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D292" s="0" t="n">
         <v>0</v>
@@ -60260,7 +60256,7 @@
         <v>26</v>
       </c>
       <c r="AN292" s="13" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AO292" s="1" t="n">
         <v>1</v>
@@ -60352,7 +60348,7 @@
         <v>79</v>
       </c>
       <c r="C293" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D293" s="0" t="n">
         <v>0</v>
@@ -60463,7 +60459,7 @@
         <v>2452</v>
       </c>
       <c r="AN293" s="13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AO293" s="1" t="n">
         <v>2</v>
@@ -60555,7 +60551,7 @@
         <v>80</v>
       </c>
       <c r="C294" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D294" s="0" t="n">
         <v>0</v>
@@ -60666,7 +60662,7 @@
         <v>335</v>
       </c>
       <c r="AN294" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AO294" s="1" t="n">
         <v>1</v>
@@ -60758,7 +60754,7 @@
         <v>81</v>
       </c>
       <c r="C295" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D295" s="0" t="n">
         <v>0</v>
@@ -60869,7 +60865,7 @@
         <v>0</v>
       </c>
       <c r="AN295" s="13" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AO295" s="1" t="n">
         <v>1</v>
@@ -60961,7 +60957,7 @@
         <v>82</v>
       </c>
       <c r="C296" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D296" s="0" t="n">
         <v>0</v>
@@ -61072,7 +61068,7 @@
         <v>5781</v>
       </c>
       <c r="AN296" s="13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AO296" s="1" t="n">
         <v>1</v>
@@ -61164,7 +61160,7 @@
         <v>83</v>
       </c>
       <c r="C297" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D297" s="0" t="n">
         <v>0</v>
@@ -61275,7 +61271,7 @@
         <v>16</v>
       </c>
       <c r="AN297" s="13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AO297" s="1" t="n">
         <v>1</v>
@@ -61367,7 +61363,7 @@
         <v>84</v>
       </c>
       <c r="C298" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D298" s="0" t="n">
         <v>0</v>
@@ -61478,7 +61474,7 @@
         <v>0</v>
       </c>
       <c r="AN298" s="13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AO298" s="1" t="n">
         <v>1</v>
@@ -61570,7 +61566,7 @@
         <v>85</v>
       </c>
       <c r="C299" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D299" s="0" t="n">
         <v>0</v>
@@ -61681,7 +61677,7 @@
         <v>64</v>
       </c>
       <c r="AN299" s="13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AO299" s="1" t="n">
         <v>1</v>
@@ -61773,7 +61769,7 @@
         <v>86</v>
       </c>
       <c r="C300" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D300" s="0" t="n">
         <v>0</v>
@@ -61884,7 +61880,7 @@
         <v>59</v>
       </c>
       <c r="AN300" s="13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AO300" s="1" t="n">
         <v>1</v>
@@ -61976,7 +61972,7 @@
         <v>87</v>
       </c>
       <c r="C301" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D301" s="0" t="n">
         <v>0</v>
@@ -62179,7 +62175,7 @@
         <v>88</v>
       </c>
       <c r="C302" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D302" s="0" t="n">
         <v>0</v>
@@ -62290,7 +62286,7 @@
         <v>0</v>
       </c>
       <c r="AN302" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AO302" s="1" t="n">
         <v>1</v>
@@ -62382,7 +62378,7 @@
         <v>89</v>
       </c>
       <c r="C303" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D303" s="0" t="n">
         <v>0</v>
@@ -62493,7 +62489,7 @@
         <v>276</v>
       </c>
       <c r="AN303" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AO303" s="1" t="n">
         <v>2</v>
@@ -62585,7 +62581,7 @@
         <v>90</v>
       </c>
       <c r="C304" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D304" s="0" t="n">
         <v>0</v>
@@ -62696,7 +62692,7 @@
         <v>0</v>
       </c>
       <c r="AN304" s="13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AO304" s="1" t="n">
         <v>2</v>
@@ -62788,7 +62784,7 @@
         <v>91</v>
       </c>
       <c r="C305" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D305" s="0" t="n">
         <v>0</v>
@@ -62899,7 +62895,7 @@
         <v>62</v>
       </c>
       <c r="AN305" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AO305" s="1" t="n">
         <v>1</v>
@@ -62991,7 +62987,7 @@
         <v>92</v>
       </c>
       <c r="C306" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D306" s="0" t="n">
         <v>0</v>
@@ -63102,7 +63098,7 @@
         <v>183</v>
       </c>
       <c r="AN306" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AO306" s="1" t="n">
         <v>1</v>
@@ -63194,7 +63190,7 @@
         <v>93</v>
       </c>
       <c r="C307" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D307" s="0" t="n">
         <v>0</v>
@@ -63305,7 +63301,7 @@
         <v>175</v>
       </c>
       <c r="AN307" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AO307" s="1" t="n">
         <v>1</v>
@@ -63397,7 +63393,7 @@
         <v>94</v>
       </c>
       <c r="C308" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D308" s="0" t="n">
         <v>0</v>
@@ -63508,7 +63504,7 @@
         <v>0</v>
       </c>
       <c r="AN308" s="13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AO308" s="1" t="n">
         <v>1</v>
@@ -63600,7 +63596,7 @@
         <v>95</v>
       </c>
       <c r="C309" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D309" s="0" t="n">
         <v>0</v>
@@ -63711,7 +63707,7 @@
         <v>2280</v>
       </c>
       <c r="AN309" s="13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AO309" s="1" t="n">
         <v>1</v>
@@ -63914,7 +63910,7 @@
         <v>1308</v>
       </c>
       <c r="AN310" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AO310" s="1" t="n">
         <v>1</v>
@@ -64117,7 +64113,7 @@
         <v>0</v>
       </c>
       <c r="AN311" s="13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AO311" s="1" t="n">
         <v>1</v>
@@ -64320,7 +64316,7 @@
         <v>318</v>
       </c>
       <c r="AN312" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AO312" s="1" t="n">
         <v>1</v>
@@ -64523,7 +64519,7 @@
         <v>90</v>
       </c>
       <c r="AN313" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AO313" s="1" t="n">
         <v>1</v>
@@ -64726,7 +64722,7 @@
         <v>69</v>
       </c>
       <c r="AN314" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AO314" s="1" t="n">
         <v>1</v>
@@ -64929,7 +64925,7 @@
         <v>26</v>
       </c>
       <c r="AN315" s="13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AO315" s="1" t="n">
         <v>1</v>
@@ -65132,7 +65128,7 @@
         <v>0</v>
       </c>
       <c r="AN316" s="13" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AO316" s="1" t="n">
         <v>1</v>
@@ -65335,7 +65331,7 @@
         <v>1475</v>
       </c>
       <c r="AN317" s="13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AO317" s="1" t="n">
         <v>2</v>
@@ -65538,7 +65534,7 @@
         <v>0</v>
       </c>
       <c r="AN318" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AO318" s="1" t="n">
         <v>1</v>
@@ -65741,7 +65737,7 @@
         <v>15</v>
       </c>
       <c r="AN319" s="13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AO319" s="1" t="n">
         <v>1</v>
@@ -65944,7 +65940,7 @@
         <v>128</v>
       </c>
       <c r="AN320" s="13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AO320" s="1" t="n">
         <v>1</v>
@@ -66350,7 +66346,7 @@
         <v>107</v>
       </c>
       <c r="AN322" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AO322" s="1" t="n">
         <v>1</v>
@@ -66553,7 +66549,7 @@
         <v>4023</v>
       </c>
       <c r="AN323" s="13" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AO323" s="1" t="n">
         <v>2</v>
@@ -66756,7 +66752,7 @@
         <v>0</v>
       </c>
       <c r="AN324" s="13" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AO324" s="1" t="n">
         <v>1</v>
@@ -66959,7 +66955,7 @@
         <v>1324</v>
       </c>
       <c r="AN325" s="13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AO325" s="1" t="n">
         <v>1</v>
@@ -67162,7 +67158,7 @@
         <v>27</v>
       </c>
       <c r="AN326" s="13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AO326" s="1" t="n">
         <v>1</v>
@@ -67365,7 +67361,7 @@
         <v>234</v>
       </c>
       <c r="AN327" s="13" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AO327" s="1" t="n">
         <v>1</v>
@@ -67568,7 +67564,7 @@
         <v>163</v>
       </c>
       <c r="AN328" s="13" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AO328" s="1" t="n">
         <v>1</v>
@@ -67771,7 +67767,7 @@
         <v>165</v>
       </c>
       <c r="AN329" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AO329" s="1" t="n">
         <v>1</v>
@@ -68177,7 +68173,7 @@
         <v>39</v>
       </c>
       <c r="AN331" s="13" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AO331" s="1" t="n">
         <v>1</v>
@@ -68380,7 +68376,7 @@
         <v>765</v>
       </c>
       <c r="AN332" s="13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AO332" s="1" t="n">
         <v>1</v>
@@ -68583,7 +68579,7 @@
         <v>211</v>
       </c>
       <c r="AN333" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AO333" s="1" t="n">
         <v>1</v>
@@ -68786,7 +68782,7 @@
         <v>185</v>
       </c>
       <c r="AN334" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AO334" s="1" t="n">
         <v>1</v>
@@ -68989,7 +68985,7 @@
         <v>0</v>
       </c>
       <c r="AN335" s="13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AO335" s="1" t="n">
         <v>1</v>
@@ -69192,7 +69188,7 @@
         <v>4097</v>
       </c>
       <c r="AN336" s="13" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AO336" s="1" t="n">
         <v>1</v>
@@ -69395,7 +69391,7 @@
         <v>0</v>
       </c>
       <c r="AN337" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AO337" s="1" t="n">
         <v>1</v>
@@ -69598,7 +69594,7 @@
         <v>608</v>
       </c>
       <c r="AN338" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AO338" s="1" t="n">
         <v>1</v>
@@ -69801,7 +69797,7 @@
         <v>73</v>
       </c>
       <c r="AN339" s="13" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AO339" s="1" t="n">
         <v>1</v>
@@ -70004,7 +70000,7 @@
         <v>155</v>
       </c>
       <c r="AN340" s="13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AO340" s="1" t="n">
         <v>1</v>
@@ -70207,7 +70203,7 @@
         <v>0</v>
       </c>
       <c r="AN341" s="13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AO341" s="1" t="n">
         <v>1</v>
@@ -70410,7 +70406,7 @@
         <v>3498</v>
       </c>
       <c r="AN342" s="13" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AO342" s="1" t="n">
         <v>1</v>
@@ -70613,7 +70609,7 @@
         <v>350</v>
       </c>
       <c r="AN343" s="13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AO343" s="1" t="n">
         <v>1</v>
@@ -70816,7 +70812,7 @@
         <v>0</v>
       </c>
       <c r="AN344" s="13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AO344" s="1" t="n">
         <v>1</v>
@@ -71222,7 +71218,7 @@
         <v>2278</v>
       </c>
       <c r="AN346" s="13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AO346" s="1" t="n">
         <v>1</v>
